--- a/config.xlsx
+++ b/config.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="89">
   <si>
     <t xml:space="preserve">filename </t>
   </si>
@@ -90,9 +90,6 @@
     <t>psync</t>
   </si>
   <si>
-    <t>#2</t>
-  </si>
-  <si>
     <t>#0</t>
   </si>
   <si>
@@ -117,25 +114,16 @@
     <t>#libaio</t>
   </si>
   <si>
-    <t>#8</t>
-  </si>
-  <si>
     <t>readwrite</t>
   </si>
   <si>
     <t>#vsync</t>
   </si>
   <si>
-    <t>#16</t>
-  </si>
-  <si>
     <t>randrw</t>
   </si>
   <si>
     <t>#posixaio</t>
-  </si>
-  <si>
-    <t>#32</t>
   </si>
   <si>
     <t>#solarisaio</t>
@@ -799,7 +787,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -844,28 +832,28 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" t="s">
         <v>85</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>86</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>87</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>88</v>
-      </c>
-      <c r="N1" t="s">
-        <v>89</v>
-      </c>
-      <c r="O1" t="s">
-        <v>90</v>
-      </c>
-      <c r="P1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -894,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>
@@ -940,26 +928,26 @@
       <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
         <v>22</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
       </c>
       <c r="N3" t="s">
         <v>12</v>
@@ -979,28 +967,28 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -1032,28 +1020,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
+      <c r="G5">
+        <v>8</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
-        <v>12</v>
+      <c r="I5">
+        <v>8</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -1085,7 +1073,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1097,16 +1085,16 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" t="s">
-        <v>12</v>
+      <c r="I6">
+        <v>10</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -1138,7 +1126,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1150,10 +1138,10 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>32</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -1203,7 +1191,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1256,7 +1244,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1309,7 +1297,7 @@
         <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -1362,7 +1350,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -1401,7 +1389,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1421,7 +1409,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="55.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1435,28 +1423,28 @@
     </row>
     <row r="2" spans="1:10" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1466,23 +1454,23 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1495,7 +1483,7 @@
         <v>2527</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
@@ -1503,64 +1491,64 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="4">
         <v>144</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="4">
         <v>85</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="4">
         <v>178</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="4">
         <v>179</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -1569,11 +1557,11 @@
         <v>979</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>10</v>
@@ -1582,7 +1570,7 @@
         <v>2453</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1595,7 +1583,7 @@
         <v>980</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
@@ -1606,13 +1594,13 @@
         <v>2449</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1621,11 +1609,11 @@
         <v>81</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>10</v>
@@ -1634,7 +1622,7 @@
         <v>56</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1647,7 +1635,7 @@
         <v>82</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
@@ -1658,12 +1646,12 @@
         <v>56</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -1673,20 +1661,20 @@
         <v>4951</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -1699,7 +1687,7 @@
         <v>2496</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1" t="s">
@@ -1707,64 +1695,64 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="4">
         <v>143</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="4">
         <v>85</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="4">
         <v>175</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="4">
         <v>179</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>10</v>
@@ -1773,11 +1761,11 @@
         <v>1030</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>10</v>
@@ -1786,7 +1774,7 @@
         <v>2487</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1799,7 +1787,7 @@
         <v>1030</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
@@ -1810,13 +1798,13 @@
         <v>2483</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>10</v>
@@ -1825,11 +1813,11 @@
         <v>82</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>10</v>
@@ -1838,7 +1826,7 @@
         <v>56</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -1851,7 +1839,7 @@
         <v>82</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -1862,7 +1850,7 @@
         <v>56</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">

--- a/config.xlsx
+++ b/config.xlsx
@@ -410,15 +410,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>!write_bw_log</t>
+    <t>#!write_bw_log</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>!write_lat_log</t>
+    <t>#!write_lat_log</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>!write_iops_log</t>
+    <t>#!write_iops_log</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -486,15 +486,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -503,6 +494,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,7 +787,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -999,7 +999,7 @@
       <c r="L4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N4" t="s">
@@ -1052,7 +1052,7 @@
       <c r="L5" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N5" t="s">
@@ -1105,7 +1105,7 @@
       <c r="L6" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N6" t="s">
@@ -1158,7 +1158,7 @@
       <c r="L7" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N7" t="s">
@@ -1211,7 +1211,7 @@
       <c r="L8" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N8" t="s">
@@ -1264,7 +1264,7 @@
       <c r="L9" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N9" t="s">
@@ -1317,7 +1317,7 @@
       <c r="L10" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N10" t="s">
@@ -1370,7 +1370,7 @@
       <c r="L11" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N11" t="s">
@@ -1408,479 +1408,465 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="55.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4">
+      <c r="C4" s="5"/>
+      <c r="D4" s="1">
         <v>2527</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4">
+      <c r="C5" s="5"/>
+      <c r="D5" s="1">
         <v>144</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="4">
+      <c r="H5" s="5"/>
+      <c r="I5" s="1">
         <v>85</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4">
+      <c r="C6" s="5"/>
+      <c r="D6" s="1">
         <v>178</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="4">
+      <c r="H6" s="5"/>
+      <c r="I6" s="1">
         <v>179</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>979</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="1">
         <v>2453</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>980</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="4" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1">
         <v>2449</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>81</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="1">
         <v>56</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>82</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="4" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="1">
         <v>56</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="6">
+      <c r="C11" s="5"/>
+      <c r="D11" s="3">
         <v>4951</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4">
+      <c r="C12" s="5"/>
+      <c r="D12" s="1">
         <v>2496</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4">
+      <c r="C13" s="5"/>
+      <c r="D13" s="1">
         <v>143</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="4">
+      <c r="H13" s="5"/>
+      <c r="I13" s="1">
         <v>85</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4">
+      <c r="C14" s="5"/>
+      <c r="D14" s="1">
         <v>175</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="4">
+      <c r="H14" s="5"/>
+      <c r="I14" s="1">
         <v>179</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="1">
         <v>1030</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="1">
         <v>2487</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="1">
         <v>1030</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="4" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="1">
         <v>2483</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="1">
         <v>82</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="1">
         <v>56</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="4" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="1">
         <v>82</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="4" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="1">
         <v>56</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="G17:G18"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="B3:C3"/>
@@ -1896,6 +1882,20 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="G17:G18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="94">
   <si>
     <t xml:space="preserve">filename </t>
   </si>
@@ -568,7 +568,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.56640625" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -651,7 +651,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>21</v>
@@ -927,8 +927,8 @@
       <c r="H7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>20</v>
+      <c r="I7" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>20</v>
